--- a/Hola.Api/ExcelTemplate/template.xlsx
+++ b/Hola.Api/ExcelTemplate/template.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>Từ vựng hôm nay</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>Từ vựng</t>
@@ -38,6 +38,30 @@
     <t>Tick</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>an increase in amount, number, or size</t>
+  </si>
+  <si>
+    <t>(n) Sự tăng trưởng</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>/ˈpeɪmənt/</t>
+  </si>
+  <si>
+    <t>an amount of money that has been or must be paid</t>
+  </si>
+  <si>
+    <t>n. Trả tiền</t>
+  </si>
+  <si>
     <t>sanitation</t>
   </si>
   <si>
@@ -159,9 +183,6 @@
   </si>
   <si>
     <t>food shortage</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>n. thiếu lương thực</t>
@@ -233,7 +254,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,11 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF191919" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -275,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,7 +312,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +375,7 @@
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -371,7 +386,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G4" s="6" t="b">
         <v>0</v>
@@ -381,7 +396,7 @@
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -392,7 +407,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G5" s="6" t="b">
         <v>0</v>
@@ -402,7 +417,7 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -413,7 +428,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="6" t="b">
         <v>0</v>
@@ -423,7 +438,7 @@
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -434,7 +449,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="6" t="b">
         <v>0</v>
@@ -444,7 +459,7 @@
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -455,7 +470,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6" t="b">
         <v>0</v>
@@ -465,7 +480,7 @@
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -476,7 +491,7 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="6" t="b">
         <v>0</v>
@@ -486,7 +501,7 @@
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -497,7 +512,7 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="6" t="b">
         <v>0</v>
@@ -507,7 +522,7 @@
       <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -518,7 +533,7 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="b">
         <v>0</v>
@@ -528,7 +543,7 @@
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -539,7 +554,7 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G12" s="6" t="b">
         <v>0</v>
@@ -549,7 +564,7 @@
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -560,7 +575,7 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6" t="b">
         <v>0</v>
@@ -570,18 +585,18 @@
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="6" t="b">
         <v>0</v>
@@ -589,20 +604,20 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="b">
         <v>0</v>
@@ -610,20 +625,20 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" s="6" t="b">
         <v>0</v>
@@ -633,18 +648,18 @@
       <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17" s="6" t="b">
         <v>0</v>
@@ -652,22 +667,64 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6">
+        <v>70</v>
+      </c>
+      <c r="G18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>71</v>
+      </c>
+      <c r="G19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="6" t="b">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>72</v>
+      </c>
+      <c r="G20" s="6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Hola.Api/ExcelTemplate/template.xlsx
+++ b/Hola.Api/ExcelTemplate/template.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t>string</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+  <si>
+    <t>BÁO CÁO TỪ VỰNG CỦA CHỦ ĐIỂM TOPIC ĐÃ CHỌN</t>
   </si>
   <si>
     <t>Từ vựng</t>
@@ -38,10 +38,190 @@
     <t>Tick</t>
   </si>
   <si>
+    <t>sanitation</t>
+  </si>
+  <si>
+    <t>/ˌsæn.ɪˈteɪ.ʃən/</t>
+  </si>
+  <si>
+    <t>Many illnesses in these temporary refugee camps are the result of inadequate sanitation.</t>
+  </si>
+  <si>
+    <t>n. Vệ sinh</t>
+  </si>
+  <si>
+    <t>the systems for taking dirty water and other waste products away from buildings in order to protect people's health:</t>
+  </si>
+  <si>
+    <t>confine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /kənˈfaɪn/</t>
+  </si>
+  <si>
+    <t>Let's confine our discussion to the matter in question, please!</t>
+  </si>
+  <si>
+    <t>v. hạn chế, giam cầm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>lifecycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈlaɪf ˌsaɪ.kəl/</t>
+  </si>
+  <si>
+    <t>the series of changes that a living thing goes through from the beginning of its life until death</t>
+  </si>
+  <si>
+    <t>n. chu kì sống, vòng đời</t>
+  </si>
+  <si>
+    <t>unsustainable</t>
+  </si>
+  <si>
+    <t>ˌʌn.səˈsteɪ.nə.bəl/</t>
+  </si>
+  <si>
+    <t>Something that is unsustainable cannot continue at the same rate</t>
+  </si>
+  <si>
+    <t>adj. không bền vững</t>
+  </si>
+  <si>
+    <t>withdrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /wɪðˈdrɔː.əl/</t>
+  </si>
+  <si>
+    <t>when you take money out of a bank account</t>
+  </si>
+  <si>
+    <t>n. sự rút ra, thu hồi</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈkɒn.sɪ.kwəns/</t>
+  </si>
+  <si>
+    <t>a result of a particular action or situation, often one that is bad or not convenient</t>
+  </si>
+  <si>
+    <t>n. hậu quả, kết luận</t>
+  </si>
+  <si>
+    <t>groundwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈɡrɑʊndˌwɔt̬·ər/</t>
+  </si>
+  <si>
+    <t>water that collects below the surface of the earth</t>
+  </si>
+  <si>
+    <t>n. nước ngầm</t>
+  </si>
+  <si>
+    <t>obliterate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /əˈblɪt.ər.eɪt/</t>
+  </si>
+  <si>
+    <t>to remove all signs of something, either by destroying it or by covering it so that it cannot be seen</t>
+  </si>
+  <si>
+    <t>v. xóa bỏ, diệt đi</t>
+  </si>
+  <si>
+    <t>arguably</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈɑːɡ.ju.ə.bli/</t>
+  </si>
+  <si>
+    <t>used when stating an opinion or belief that you think can be shown to be true</t>
+  </si>
+  <si>
+    <t>adv. được coi là</t>
+  </si>
+  <si>
+    <t>water vapor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈwɑː.t̬ɚ ˌveɪ.pɚ/</t>
+  </si>
+  <si>
+    <t>water in the form of a gas resulting from heating water or ice</t>
+  </si>
+  <si>
+    <t>n. hơi nước</t>
+  </si>
+  <si>
+    <t>food shortage</t>
+  </si>
+  <si>
+    <t>n. thiếu lương thực</t>
+  </si>
+  <si>
+    <t>power shortage</t>
+  </si>
+  <si>
+    <t>Từ ghép</t>
+  </si>
+  <si>
+    <t>n. thiếu điện</t>
+  </si>
+  <si>
+    <t>smog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /smɑːɡ/</t>
+  </si>
+  <si>
+    <t>a mixture of smoke, gases, and chemicals, especially in cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.  Sương khói</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>/ˈtrʌb.əl/</t>
+  </si>
+  <si>
+    <t>problems or difficulties</t>
+  </si>
+  <si>
+    <t>n. Rắc rối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greening </t>
+  </si>
+  <si>
+    <t>/ˈɡriː.nɪŋ/</t>
+  </si>
+  <si>
+    <t>the process of becoming more active about protecting the environment</t>
+  </si>
+  <si>
+    <t>n. Sự xanh hóa</t>
+  </si>
+  <si>
+    <t>Danh từ</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">/ɡrəʊθ $ ɡroʊθ/ </t>
   </si>
   <si>
     <t>an increase in amount, number, or size</t>
@@ -50,6 +230,9 @@
     <t>(n) Sự tăng trưởng</t>
   </si>
   <si>
+    <t>Sự gia tăng về số lượng, kích cỡ</t>
+  </si>
+  <si>
     <t>payment</t>
   </si>
   <si>
@@ -62,175 +245,55 @@
     <t>n. Trả tiền</t>
   </si>
   <si>
-    <t>sanitation</t>
-  </si>
-  <si>
-    <t>/ˌsæn.ɪˈteɪ.ʃən/</t>
-  </si>
-  <si>
-    <t>Many illnesses in these temporary refugee camps are the result of inadequate sanitation.</t>
-  </si>
-  <si>
-    <t>n. Vệ sinh</t>
-  </si>
-  <si>
-    <t>confine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /kənˈfaɪn/</t>
-  </si>
-  <si>
-    <t>Let's confine our discussion to the matter in question, please!</t>
-  </si>
-  <si>
-    <t>v. hạn chế, giam cầm</t>
-  </si>
-  <si>
-    <t>lifecycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /ˈlaɪf ˌsaɪ.kəl/</t>
-  </si>
-  <si>
-    <t>the series of changes that a living thing goes through from the beginning of its life until death</t>
-  </si>
-  <si>
-    <t>n. chu kì sống, vòng đời</t>
-  </si>
-  <si>
-    <t>unsustainable</t>
-  </si>
-  <si>
-    <t>ˌʌn.səˈsteɪ.nə.bəl/</t>
-  </si>
-  <si>
-    <t>Something that is unsustainable cannot continue at the same rate</t>
-  </si>
-  <si>
-    <t>adj. không bền vững</t>
-  </si>
-  <si>
-    <t>withdrawal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /wɪðˈdrɔː.əl/</t>
-  </si>
-  <si>
-    <t>when you take money out of a bank account</t>
-  </si>
-  <si>
-    <t>n. sự rút ra, thu hồi</t>
-  </si>
-  <si>
-    <t>consequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /ˈkɒn.sɪ.kwəns/</t>
-  </si>
-  <si>
-    <t>a result of a particular action or situation, often one that is bad or not convenient</t>
-  </si>
-  <si>
-    <t>n. hậu quả, kết luận</t>
-  </si>
-  <si>
-    <t>groundwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /ˈɡrɑʊndˌwɔt̬·ər/</t>
-  </si>
-  <si>
-    <t>water that collects below the surface of the earth</t>
-  </si>
-  <si>
-    <t>n. nước ngầm</t>
-  </si>
-  <si>
-    <t>obliterate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /əˈblɪt.ər.eɪt/</t>
-  </si>
-  <si>
-    <t>to remove all signs of something, either by destroying it or by covering it so that it cannot be seen</t>
-  </si>
-  <si>
-    <t>v. xóa bỏ, diệt đi</t>
-  </si>
-  <si>
-    <t>water vapor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /ˈwɑː.t̬ɚ ˌveɪ.pɚ/</t>
-  </si>
-  <si>
-    <t>water in the form of a gas resulting from heating water or ice</t>
-  </si>
-  <si>
-    <t>n. hơi nước</t>
-  </si>
-  <si>
-    <t>arguably</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /ˈɑːɡ.ju.ə.bli/</t>
-  </si>
-  <si>
-    <t>used when stating an opinion or belief that you think can be shown to be true</t>
-  </si>
-  <si>
-    <t>adv. được coi là</t>
-  </si>
-  <si>
-    <t>food shortage</t>
-  </si>
-  <si>
-    <t>n. thiếu lương thực</t>
-  </si>
-  <si>
-    <t>power shortage</t>
-  </si>
-  <si>
-    <t>Từ ghép</t>
-  </si>
-  <si>
-    <t>n. thiếu điện</t>
-  </si>
-  <si>
-    <t>smog</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /smɑːɡ/</t>
-  </si>
-  <si>
-    <t>a mixture of smoke, gases, and chemicals, especially in cities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.  Sương khói</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>/ˈtrʌb.əl/</t>
-  </si>
-  <si>
-    <t>problems or difficulties</t>
-  </si>
-  <si>
-    <t>n. Rắc rối</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greening </t>
-  </si>
-  <si>
-    <t>/ˈɡriː.nɪŋ/</t>
-  </si>
-  <si>
-    <t>the process of becoming more active about protecting the environment</t>
-  </si>
-  <si>
-    <t>n. Sự xanh hóa</t>
+    <t>một số tiền mà bạn phải trả</t>
+  </si>
+  <si>
+    <t>Completetion</t>
+  </si>
+  <si>
+    <t>/kəmˈpliːʃən/</t>
+  </si>
+  <si>
+    <t>the state of being finished</t>
+  </si>
+  <si>
+    <t>n. Sự hoàn thành</t>
+  </si>
+  <si>
+    <t>Tinh trạng đã hoàn thành một cái gì đó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject </t>
+  </si>
+  <si>
+    <t>/ˈsʌbdʒɪkt/</t>
+  </si>
+  <si>
+    <t>the thing you are talking about or considering in a conversation</t>
+  </si>
+  <si>
+    <t>n. Đối tượng</t>
+  </si>
+  <si>
+    <t>điều đang nói hoặc đang xem trong một cuộc thảo luận, một cuốn sách</t>
+  </si>
+  <si>
+    <t>Tổng số từ của topic:19</t>
+  </si>
+  <si>
+    <t>Trạng thái hoàn thành</t>
+  </si>
+  <si>
+    <t>XÁC NHẬN CỦA HỌC VIÊN</t>
+  </si>
+  <si>
+    <t>CƠ SỞ ĐÀO TẠO</t>
+  </si>
+  <si>
+    <t>(kí rõ họ tên)</t>
+  </si>
+  <si>
+    <t>(kí tên, đóng dấu)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +301,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -253,8 +316,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +337,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -291,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,6 +385,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -330,9 +409,9 @@
   <cols>
     <col min="1" max="1" width="14.540486335754395" customWidth="1" style="1"/>
     <col min="2" max="2" width="16.64493179321289" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="86.34430694580078" customWidth="1"/>
     <col min="4" max="4" width="21.338754653930664" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="102.76348876953125" customWidth="1"/>
     <col min="6" max="6" width="21.91371726989746" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
@@ -384,9 +463,11 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="6">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G4" s="6" t="b">
         <v>0</v>
@@ -394,20 +475,22 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="6">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G5" s="6" t="b">
         <v>0</v>
@@ -415,20 +498,22 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="6" t="b">
         <v>0</v>
@@ -436,20 +521,22 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6" t="b">
         <v>0</v>
@@ -457,20 +544,22 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G8" s="6" t="b">
         <v>0</v>
@@ -478,20 +567,22 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="6" t="b">
         <v>0</v>
@@ -499,20 +590,22 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="6" t="b">
         <v>0</v>
@@ -520,20 +613,22 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="6">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" s="6" t="b">
         <v>0</v>
@@ -541,20 +636,22 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G12" s="6" t="b">
         <v>0</v>
@@ -562,20 +659,22 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="6" t="b">
         <v>0</v>
@@ -583,20 +682,22 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="6" t="b">
         <v>0</v>
@@ -607,17 +708,19 @@
         <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="6">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G15" s="6" t="b">
         <v>0</v>
@@ -625,20 +728,22 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" s="6" t="b">
         <v>0</v>
@@ -646,20 +751,22 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" s="6" t="b">
         <v>0</v>
@@ -667,20 +774,22 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="b">
         <v>0</v>
@@ -688,20 +797,22 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" s="6" t="b">
         <v>0</v>
@@ -709,28 +820,130 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F20" s="6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" s="6" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="6">
+        <v>75</v>
+      </c>
+      <c r="G21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="6">
+        <v>76</v>
+      </c>
+      <c r="G22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1">
+      <c r="A23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" s="3" customFormat="1">
+      <c r="A24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="26" s="3" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" s="3" customFormat="1">
+      <c r="A27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/Hola.Api/ExcelTemplate/template.xlsx
+++ b/Hola.Api/ExcelTemplate/template.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
-  <si>
-    <t>BÁO CÁO TỪ VỰNG CỦA CHỦ ĐIỂM TOPIC ĐÃ CHỌN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+  <si>
+    <t xml:space="preserve"> III. BÁO CÁO TỪ VỰNG CỦA CHỦ ĐIỂM TOPIC ĐÃ CHỌN</t>
   </si>
   <si>
     <t>Từ vựng</t>
@@ -278,7 +278,22 @@
     <t>điều đang nói hoặc đang xem trong một cuộc thảo luận, một cuốn sách</t>
   </si>
   <si>
-    <t>Tổng số từ của topic:19</t>
+    <t>soar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /sɔː $ sɔːr/</t>
+  </si>
+  <si>
+    <t>to increase quickly to a high level</t>
+  </si>
+  <si>
+    <t>n. tăng vọt</t>
+  </si>
+  <si>
+    <t>Tăng lên nhanh ở mức cao</t>
+  </si>
+  <si>
+    <t>Tổng số từ của topic:20</t>
   </si>
   <si>
     <t>Trạng thái hoàn thành</t>
@@ -307,8 +322,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF0000FF" tint="0"/>
+      <sz val="16"/>
+      <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -367,23 +382,23 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A2:G27"/>
+  <dimension ref="A7:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,173 +431,58 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="3" customFormat="1">
-      <c r="A3" s="5" t="s">
+    <row r="7" s="2" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" s="3" customFormat="1">
+      <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
-        <v>58</v>
-      </c>
-      <c r="G4" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6">
-        <v>59</v>
-      </c>
-      <c r="G5" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6">
-        <v>60</v>
-      </c>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6">
-        <v>61</v>
-      </c>
-      <c r="G7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6">
-        <v>62</v>
-      </c>
-      <c r="G8" s="6" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G9" s="6" t="b">
         <v>0</v>
@@ -590,22 +490,22 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="6">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G10" s="6" t="b">
         <v>0</v>
@@ -613,22 +513,22 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G11" s="6" t="b">
         <v>0</v>
@@ -636,22 +536,22 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="6">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="b">
         <v>0</v>
@@ -659,22 +559,22 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="6">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G13" s="6" t="b">
         <v>0</v>
@@ -682,22 +582,22 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="6">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6" t="b">
         <v>0</v>
@@ -705,22 +605,22 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="6">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G15" s="6" t="b">
         <v>0</v>
@@ -728,22 +628,22 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6" t="b">
         <v>0</v>
@@ -751,22 +651,22 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="6">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G17" s="6" t="b">
         <v>0</v>
@@ -774,22 +674,22 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6">
         <v>67</v>
-      </c>
-      <c r="F18" s="6">
-        <v>72</v>
       </c>
       <c r="G18" s="6" t="b">
         <v>0</v>
@@ -797,22 +697,22 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6">
         <v>68</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="6">
-        <v>73</v>
       </c>
       <c r="G19" s="6" t="b">
         <v>0</v>
@@ -820,22 +720,22 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F20" s="6">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G20" s="6" t="b">
         <v>0</v>
@@ -843,22 +743,22 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F21" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G21" s="6" t="b">
         <v>0</v>
@@ -866,84 +766,222 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6">
+        <v>71</v>
+      </c>
+      <c r="G22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="6">
+        <v>72</v>
+      </c>
+      <c r="G23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="6">
+        <v>73</v>
+      </c>
+      <c r="G24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="6">
+        <v>74</v>
+      </c>
+      <c r="G25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="6">
+        <v>75</v>
+      </c>
+      <c r="G26" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F27" s="6">
         <v>76</v>
       </c>
-      <c r="G22" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1">
-      <c r="A23" s="8" t="s">
+      <c r="G27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" s="3" customFormat="1">
-      <c r="A24" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="26" s="3" customFormat="1">
-      <c r="A26" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" s="3" customFormat="1">
-      <c r="A27" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
+      <c r="F28" s="6">
+        <v>77</v>
+      </c>
+      <c r="G28" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1">
+      <c r="A29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" s="3" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="32" s="3" customFormat="1">
+      <c r="A32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" s="3" customFormat="1">
+      <c r="A33" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
